--- a/biology/Médecine/1369_en_santé_et_médecine/1369_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1369_en_santé_et_médecine/1369_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1369_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1369_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1369 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1369_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1369_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Mai : le pape Urbain V confirme le statut de studium generale accordé par le roi Charles V en 1364 aux écoles d'Angers, ces deux actes pouvant être tenus pour fondateurs de l'université d'Angers, institution réservée à l'origine à l'enseignement du droit et où celui de la médecine, probablement dispensé avant même le début du XVe siècle[1], ne sera érigé officiellement en faculté de médecine qu'en 1432-1433 par le pape Eugène IV[2].
-23 juin : une charte de Louis Thézart, évêque de Bayeux, précise et complète celle de 1366, par laquelle Jeanne Bacon a fondé l'hôtel-Dieu de Villers, en Normandie[3].
-25 septembre : fondation à Montpellier, par le pape Urbain V, du collège de Mende, également appelé collège des Douze-Médecins[4].
-Le couvent de San Giovanni Battista de Venise se dote, sur l'île de la Giudecca, « d'un hospice pour vingt nécessiteux[5] ».
-1367-1369 : fl. Guernot, barbier au service de Charles le Mauvais, en Navarre et en Normandie[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Mai : le pape Urbain V confirme le statut de studium generale accordé par le roi Charles V en 1364 aux écoles d'Angers, ces deux actes pouvant être tenus pour fondateurs de l'université d'Angers, institution réservée à l'origine à l'enseignement du droit et où celui de la médecine, probablement dispensé avant même le début du XVe siècle, ne sera érigé officiellement en faculté de médecine qu'en 1432-1433 par le pape Eugène IV.
+23 juin : une charte de Louis Thézart, évêque de Bayeux, précise et complète celle de 1366, par laquelle Jeanne Bacon a fondé l'hôtel-Dieu de Villers, en Normandie.
+25 septembre : fondation à Montpellier, par le pape Urbain V, du collège de Mende, également appelé collège des Douze-Médecins.
+Le couvent de San Giovanni Battista de Venise se dote, sur l'île de la Giudecca, « d'un hospice pour vingt nécessiteux ».
+1367-1369 : fl. Guernot, barbier au service de Charles le Mauvais, en Navarre et en Normandie.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1369_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1369_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>17 mars[7] (ou après 1368[8]) : Ibn ʿAlī ibn H̱ātimaẗ (né vers 1300[7] à Almeria), poète et médecin arabo-andalou, auteur du Taḥṣīl ġaraḍ al-qāṣid fī tafṣīl al-maraḍ al-wāfid (« Réponse à la demande de qui désire étudier la maladie venue d'ailleurs »), important témoignage sur la peste noire en Espagne musulmane[8].
-Laurent Daubiart (date de naissance inconnue), médecin des papes d'Avignon Clément VI et Innocent VI, qui fut évêque de Vaison puis responsable du diocèse de Tulle[9].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>17 mars (ou après 1368) : Ibn ʿAlī ibn H̱ātimaẗ (né vers 1300 à Almeria), poète et médecin arabo-andalou, auteur du Taḥṣīl ġaraḍ al-qāṣid fī tafṣīl al-maraḍ al-wāfid (« Réponse à la demande de qui désire étudier la maladie venue d'ailleurs »), important témoignage sur la peste noire en Espagne musulmane.
+Laurent Daubiart (date de naissance inconnue), médecin des papes d'Avignon Clément VI et Innocent VI, qui fut évêque de Vaison puis responsable du diocèse de Tulle.</t>
         </is>
       </c>
     </row>
